--- a/docs/excel/TQuestion.xlsx
+++ b/docs/excel/TQuestion.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1931" uniqueCount="1343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1931" uniqueCount="981">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -7191,1092 +7191,6 @@
   <si>
     <t>河池市属于中国广东省？</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>43</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>46</t>
-  </si>
-  <si>
-    <t>47</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>49</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>51</t>
-  </si>
-  <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>53</t>
-  </si>
-  <si>
-    <t>54</t>
-  </si>
-  <si>
-    <t>55</t>
-  </si>
-  <si>
-    <t>56</t>
-  </si>
-  <si>
-    <t>57</t>
-  </si>
-  <si>
-    <t>58</t>
-  </si>
-  <si>
-    <t>59</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>61</t>
-  </si>
-  <si>
-    <t>62</t>
-  </si>
-  <si>
-    <t>63</t>
-  </si>
-  <si>
-    <t>64</t>
-  </si>
-  <si>
-    <t>65</t>
-  </si>
-  <si>
-    <t>66</t>
-  </si>
-  <si>
-    <t>67</t>
-  </si>
-  <si>
-    <t>68</t>
-  </si>
-  <si>
-    <t>69</t>
-  </si>
-  <si>
-    <t>70</t>
-  </si>
-  <si>
-    <t>71</t>
-  </si>
-  <si>
-    <t>72</t>
-  </si>
-  <si>
-    <t>73</t>
-  </si>
-  <si>
-    <t>74</t>
-  </si>
-  <si>
-    <t>75</t>
-  </si>
-  <si>
-    <t>76</t>
-  </si>
-  <si>
-    <t>77</t>
-  </si>
-  <si>
-    <t>78</t>
-  </si>
-  <si>
-    <t>79</t>
-  </si>
-  <si>
-    <t>80</t>
-  </si>
-  <si>
-    <t>81</t>
-  </si>
-  <si>
-    <t>82</t>
-  </si>
-  <si>
-    <t>83</t>
-  </si>
-  <si>
-    <t>84</t>
-  </si>
-  <si>
-    <t>85</t>
-  </si>
-  <si>
-    <t>86</t>
-  </si>
-  <si>
-    <t>87</t>
-  </si>
-  <si>
-    <t>88</t>
-  </si>
-  <si>
-    <t>89</t>
-  </si>
-  <si>
-    <t>90</t>
-  </si>
-  <si>
-    <t>91</t>
-  </si>
-  <si>
-    <t>92</t>
-  </si>
-  <si>
-    <t>93</t>
-  </si>
-  <si>
-    <t>94</t>
-  </si>
-  <si>
-    <t>95</t>
-  </si>
-  <si>
-    <t>96</t>
-  </si>
-  <si>
-    <t>97</t>
-  </si>
-  <si>
-    <t>98</t>
-  </si>
-  <si>
-    <t>99</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>101</t>
-  </si>
-  <si>
-    <t>102</t>
-  </si>
-  <si>
-    <t>103</t>
-  </si>
-  <si>
-    <t>104</t>
-  </si>
-  <si>
-    <t>105</t>
-  </si>
-  <si>
-    <t>106</t>
-  </si>
-  <si>
-    <t>107</t>
-  </si>
-  <si>
-    <t>108</t>
-  </si>
-  <si>
-    <t>109</t>
-  </si>
-  <si>
-    <t>110</t>
-  </si>
-  <si>
-    <t>111</t>
-  </si>
-  <si>
-    <t>112</t>
-  </si>
-  <si>
-    <t>113</t>
-  </si>
-  <si>
-    <t>114</t>
-  </si>
-  <si>
-    <t>115</t>
-  </si>
-  <si>
-    <t>116</t>
-  </si>
-  <si>
-    <t>117</t>
-  </si>
-  <si>
-    <t>118</t>
-  </si>
-  <si>
-    <t>119</t>
-  </si>
-  <si>
-    <t>120</t>
-  </si>
-  <si>
-    <t>121</t>
-  </si>
-  <si>
-    <t>122</t>
-  </si>
-  <si>
-    <t>123</t>
-  </si>
-  <si>
-    <t>124</t>
-  </si>
-  <si>
-    <t>125</t>
-  </si>
-  <si>
-    <t>126</t>
-  </si>
-  <si>
-    <t>127</t>
-  </si>
-  <si>
-    <t>128</t>
-  </si>
-  <si>
-    <t>129</t>
-  </si>
-  <si>
-    <t>130</t>
-  </si>
-  <si>
-    <t>131</t>
-  </si>
-  <si>
-    <t>132</t>
-  </si>
-  <si>
-    <t>133</t>
-  </si>
-  <si>
-    <t>134</t>
-  </si>
-  <si>
-    <t>135</t>
-  </si>
-  <si>
-    <t>136</t>
-  </si>
-  <si>
-    <t>137</t>
-  </si>
-  <si>
-    <t>138</t>
-  </si>
-  <si>
-    <t>139</t>
-  </si>
-  <si>
-    <t>140</t>
-  </si>
-  <si>
-    <t>141</t>
-  </si>
-  <si>
-    <t>142</t>
-  </si>
-  <si>
-    <t>143</t>
-  </si>
-  <si>
-    <t>144</t>
-  </si>
-  <si>
-    <t>145</t>
-  </si>
-  <si>
-    <t>146</t>
-  </si>
-  <si>
-    <t>147</t>
-  </si>
-  <si>
-    <t>148</t>
-  </si>
-  <si>
-    <t>149</t>
-  </si>
-  <si>
-    <t>150</t>
-  </si>
-  <si>
-    <t>151</t>
-  </si>
-  <si>
-    <t>152</t>
-  </si>
-  <si>
-    <t>153</t>
-  </si>
-  <si>
-    <t>154</t>
-  </si>
-  <si>
-    <t>155</t>
-  </si>
-  <si>
-    <t>156</t>
-  </si>
-  <si>
-    <t>157</t>
-  </si>
-  <si>
-    <t>158</t>
-  </si>
-  <si>
-    <t>159</t>
-  </si>
-  <si>
-    <t>160</t>
-  </si>
-  <si>
-    <t>161</t>
-  </si>
-  <si>
-    <t>162</t>
-  </si>
-  <si>
-    <t>163</t>
-  </si>
-  <si>
-    <t>164</t>
-  </si>
-  <si>
-    <t>165</t>
-  </si>
-  <si>
-    <t>166</t>
-  </si>
-  <si>
-    <t>167</t>
-  </si>
-  <si>
-    <t>168</t>
-  </si>
-  <si>
-    <t>169</t>
-  </si>
-  <si>
-    <t>170</t>
-  </si>
-  <si>
-    <t>171</t>
-  </si>
-  <si>
-    <t>172</t>
-  </si>
-  <si>
-    <t>173</t>
-  </si>
-  <si>
-    <t>174</t>
-  </si>
-  <si>
-    <t>175</t>
-  </si>
-  <si>
-    <t>176</t>
-  </si>
-  <si>
-    <t>177</t>
-  </si>
-  <si>
-    <t>178</t>
-  </si>
-  <si>
-    <t>179</t>
-  </si>
-  <si>
-    <t>180</t>
-  </si>
-  <si>
-    <t>181</t>
-  </si>
-  <si>
-    <t>182</t>
-  </si>
-  <si>
-    <t>183</t>
-  </si>
-  <si>
-    <t>184</t>
-  </si>
-  <si>
-    <t>185</t>
-  </si>
-  <si>
-    <t>186</t>
-  </si>
-  <si>
-    <t>187</t>
-  </si>
-  <si>
-    <t>188</t>
-  </si>
-  <si>
-    <t>189</t>
-  </si>
-  <si>
-    <t>190</t>
-  </si>
-  <si>
-    <t>191</t>
-  </si>
-  <si>
-    <t>192</t>
-  </si>
-  <si>
-    <t>193</t>
-  </si>
-  <si>
-    <t>194</t>
-  </si>
-  <si>
-    <t>195</t>
-  </si>
-  <si>
-    <t>196</t>
-  </si>
-  <si>
-    <t>197</t>
-  </si>
-  <si>
-    <t>198</t>
-  </si>
-  <si>
-    <t>199</t>
-  </si>
-  <si>
-    <t>200</t>
-  </si>
-  <si>
-    <t>201</t>
-  </si>
-  <si>
-    <t>202</t>
-  </si>
-  <si>
-    <t>203</t>
-  </si>
-  <si>
-    <t>204</t>
-  </si>
-  <si>
-    <t>205</t>
-  </si>
-  <si>
-    <t>206</t>
-  </si>
-  <si>
-    <t>207</t>
-  </si>
-  <si>
-    <t>208</t>
-  </si>
-  <si>
-    <t>209</t>
-  </si>
-  <si>
-    <t>210</t>
-  </si>
-  <si>
-    <t>211</t>
-  </si>
-  <si>
-    <t>212</t>
-  </si>
-  <si>
-    <t>213</t>
-  </si>
-  <si>
-    <t>214</t>
-  </si>
-  <si>
-    <t>215</t>
-  </si>
-  <si>
-    <t>216</t>
-  </si>
-  <si>
-    <t>217</t>
-  </si>
-  <si>
-    <t>218</t>
-  </si>
-  <si>
-    <t>219</t>
-  </si>
-  <si>
-    <t>220</t>
-  </si>
-  <si>
-    <t>221</t>
-  </si>
-  <si>
-    <t>222</t>
-  </si>
-  <si>
-    <t>223</t>
-  </si>
-  <si>
-    <t>224</t>
-  </si>
-  <si>
-    <t>225</t>
-  </si>
-  <si>
-    <t>226</t>
-  </si>
-  <si>
-    <t>227</t>
-  </si>
-  <si>
-    <t>228</t>
-  </si>
-  <si>
-    <t>229</t>
-  </si>
-  <si>
-    <t>230</t>
-  </si>
-  <si>
-    <t>231</t>
-  </si>
-  <si>
-    <t>232</t>
-  </si>
-  <si>
-    <t>233</t>
-  </si>
-  <si>
-    <t>234</t>
-  </si>
-  <si>
-    <t>235</t>
-  </si>
-  <si>
-    <t>236</t>
-  </si>
-  <si>
-    <t>237</t>
-  </si>
-  <si>
-    <t>238</t>
-  </si>
-  <si>
-    <t>239</t>
-  </si>
-  <si>
-    <t>240</t>
-  </si>
-  <si>
-    <t>241</t>
-  </si>
-  <si>
-    <t>242</t>
-  </si>
-  <si>
-    <t>243</t>
-  </si>
-  <si>
-    <t>244</t>
-  </si>
-  <si>
-    <t>245</t>
-  </si>
-  <si>
-    <t>246</t>
-  </si>
-  <si>
-    <t>247</t>
-  </si>
-  <si>
-    <t>248</t>
-  </si>
-  <si>
-    <t>249</t>
-  </si>
-  <si>
-    <t>250</t>
-  </si>
-  <si>
-    <t>251</t>
-  </si>
-  <si>
-    <t>252</t>
-  </si>
-  <si>
-    <t>253</t>
-  </si>
-  <si>
-    <t>254</t>
-  </si>
-  <si>
-    <t>255</t>
-  </si>
-  <si>
-    <t>256</t>
-  </si>
-  <si>
-    <t>257</t>
-  </si>
-  <si>
-    <t>258</t>
-  </si>
-  <si>
-    <t>259</t>
-  </si>
-  <si>
-    <t>260</t>
-  </si>
-  <si>
-    <t>261</t>
-  </si>
-  <si>
-    <t>262</t>
-  </si>
-  <si>
-    <t>263</t>
-  </si>
-  <si>
-    <t>264</t>
-  </si>
-  <si>
-    <t>265</t>
-  </si>
-  <si>
-    <t>266</t>
-  </si>
-  <si>
-    <t>267</t>
-  </si>
-  <si>
-    <t>268</t>
-  </si>
-  <si>
-    <t>269</t>
-  </si>
-  <si>
-    <t>270</t>
-  </si>
-  <si>
-    <t>271</t>
-  </si>
-  <si>
-    <t>272</t>
-  </si>
-  <si>
-    <t>273</t>
-  </si>
-  <si>
-    <t>274</t>
-  </si>
-  <si>
-    <t>275</t>
-  </si>
-  <si>
-    <t>276</t>
-  </si>
-  <si>
-    <t>277</t>
-  </si>
-  <si>
-    <t>278</t>
-  </si>
-  <si>
-    <t>279</t>
-  </si>
-  <si>
-    <t>280</t>
-  </si>
-  <si>
-    <t>281</t>
-  </si>
-  <si>
-    <t>282</t>
-  </si>
-  <si>
-    <t>283</t>
-  </si>
-  <si>
-    <t>284</t>
-  </si>
-  <si>
-    <t>285</t>
-  </si>
-  <si>
-    <t>286</t>
-  </si>
-  <si>
-    <t>287</t>
-  </si>
-  <si>
-    <t>288</t>
-  </si>
-  <si>
-    <t>289</t>
-  </si>
-  <si>
-    <t>290</t>
-  </si>
-  <si>
-    <t>291</t>
-  </si>
-  <si>
-    <t>292</t>
-  </si>
-  <si>
-    <t>293</t>
-  </si>
-  <si>
-    <t>294</t>
-  </si>
-  <si>
-    <t>295</t>
-  </si>
-  <si>
-    <t>296</t>
-  </si>
-  <si>
-    <t>297</t>
-  </si>
-  <si>
-    <t>298</t>
-  </si>
-  <si>
-    <t>299</t>
-  </si>
-  <si>
-    <t>300</t>
-  </si>
-  <si>
-    <t>301</t>
-  </si>
-  <si>
-    <t>302</t>
-  </si>
-  <si>
-    <t>303</t>
-  </si>
-  <si>
-    <t>304</t>
-  </si>
-  <si>
-    <t>305</t>
-  </si>
-  <si>
-    <t>306</t>
-  </si>
-  <si>
-    <t>307</t>
-  </si>
-  <si>
-    <t>308</t>
-  </si>
-  <si>
-    <t>309</t>
-  </si>
-  <si>
-    <t>310</t>
-  </si>
-  <si>
-    <t>311</t>
-  </si>
-  <si>
-    <t>312</t>
-  </si>
-  <si>
-    <t>313</t>
-  </si>
-  <si>
-    <t>314</t>
-  </si>
-  <si>
-    <t>315</t>
-  </si>
-  <si>
-    <t>316</t>
-  </si>
-  <si>
-    <t>317</t>
-  </si>
-  <si>
-    <t>318</t>
-  </si>
-  <si>
-    <t>319</t>
-  </si>
-  <si>
-    <t>320</t>
-  </si>
-  <si>
-    <t>321</t>
-  </si>
-  <si>
-    <t>322</t>
-  </si>
-  <si>
-    <t>323</t>
-  </si>
-  <si>
-    <t>324</t>
-  </si>
-  <si>
-    <t>325</t>
-  </si>
-  <si>
-    <t>326</t>
-  </si>
-  <si>
-    <t>327</t>
-  </si>
-  <si>
-    <t>328</t>
-  </si>
-  <si>
-    <t>329</t>
-  </si>
-  <si>
-    <t>330</t>
-  </si>
-  <si>
-    <t>331</t>
-  </si>
-  <si>
-    <t>332</t>
-  </si>
-  <si>
-    <t>333</t>
-  </si>
-  <si>
-    <t>334</t>
-  </si>
-  <si>
-    <t>335</t>
-  </si>
-  <si>
-    <t>336</t>
-  </si>
-  <si>
-    <t>337</t>
-  </si>
-  <si>
-    <t>338</t>
-  </si>
-  <si>
-    <t>339</t>
-  </si>
-  <si>
-    <t>340</t>
-  </si>
-  <si>
-    <t>341</t>
-  </si>
-  <si>
-    <t>342</t>
-  </si>
-  <si>
-    <t>343</t>
-  </si>
-  <si>
-    <t>344</t>
-  </si>
-  <si>
-    <t>345</t>
-  </si>
-  <si>
-    <t>346</t>
-  </si>
-  <si>
-    <t>347</t>
-  </si>
-  <si>
-    <t>348</t>
-  </si>
-  <si>
-    <t>349</t>
-  </si>
-  <si>
-    <t>350</t>
-  </si>
-  <si>
-    <t>351</t>
-  </si>
-  <si>
-    <t>352</t>
-  </si>
-  <si>
-    <t>353</t>
-  </si>
-  <si>
-    <t>354</t>
-  </si>
-  <si>
-    <t>355</t>
-  </si>
-  <si>
-    <t>356</t>
-  </si>
-  <si>
-    <t>357</t>
-  </si>
-  <si>
-    <t>358</t>
-  </si>
-  <si>
-    <t>359</t>
-  </si>
-  <si>
-    <t>360</t>
-  </si>
-  <si>
-    <t>361</t>
-  </si>
-  <si>
-    <t>362</t>
-  </si>
-  <si>
-    <t>363</t>
   </si>
   <si>
     <t>int32</t>
@@ -8724,8 +7638,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F956"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A923" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E557" sqref="E557"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8754,13 +7668,13 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1342</v>
+        <v>980</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>1342</v>
+        <v>980</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
@@ -10388,8 +9302,8 @@
       <c r="B142" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C142" s="7" t="s">
-        <v>980</v>
+      <c r="C142" s="11" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.2">
@@ -10399,8 +9313,8 @@
       <c r="B143" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C143" s="7" t="s">
-        <v>981</v>
+      <c r="C143" s="11" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.2">
@@ -10410,8 +9324,8 @@
       <c r="B144" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C144" s="7" t="s">
-        <v>982</v>
+      <c r="C144" s="11" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.2">
@@ -10421,8 +9335,8 @@
       <c r="B145" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C145" s="7" t="s">
-        <v>983</v>
+      <c r="C145" s="11" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.2">
@@ -10432,8 +9346,8 @@
       <c r="B146" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="C146" s="7" t="s">
-        <v>984</v>
+      <c r="C146" s="11" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.2">
@@ -10443,8 +9357,8 @@
       <c r="B147" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="C147" s="7" t="s">
-        <v>985</v>
+      <c r="C147" s="11" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.2">
@@ -10454,8 +9368,8 @@
       <c r="B148" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="C148" s="7" t="s">
-        <v>986</v>
+      <c r="C148" s="11" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.2">
@@ -10465,8 +9379,8 @@
       <c r="B149" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="C149" s="7" t="s">
-        <v>987</v>
+      <c r="C149" s="11" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.2">
@@ -10476,8 +9390,8 @@
       <c r="B150" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="C150" s="7" t="s">
-        <v>988</v>
+      <c r="C150" s="11" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.2">
@@ -10487,8 +9401,8 @@
       <c r="B151" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="C151" s="7" t="s">
-        <v>989</v>
+      <c r="C151" s="11" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.2">
@@ -10498,8 +9412,8 @@
       <c r="B152" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="C152" s="7" t="s">
-        <v>990</v>
+      <c r="C152" s="11" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.2">
@@ -10509,8 +9423,8 @@
       <c r="B153" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="C153" s="7" t="s">
-        <v>991</v>
+      <c r="C153" s="11" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.2">
@@ -10520,8 +9434,8 @@
       <c r="B154" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="C154" s="7" t="s">
-        <v>992</v>
+      <c r="C154" s="11" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.2">
@@ -10531,8 +9445,8 @@
       <c r="B155" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="C155" s="7" t="s">
-        <v>993</v>
+      <c r="C155" s="11" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.2">
@@ -10542,8 +9456,8 @@
       <c r="B156" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="C156" s="7" t="s">
-        <v>994</v>
+      <c r="C156" s="11" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.2">
@@ -10553,8 +9467,8 @@
       <c r="B157" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="C157" s="7" t="s">
-        <v>995</v>
+      <c r="C157" s="11" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.2">
@@ -10564,8 +9478,8 @@
       <c r="B158" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="C158" s="7" t="s">
-        <v>996</v>
+      <c r="C158" s="11" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.2">
@@ -10575,8 +9489,8 @@
       <c r="B159" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="C159" s="7" t="s">
-        <v>997</v>
+      <c r="C159" s="11" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.2">
@@ -10586,8 +9500,8 @@
       <c r="B160" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="C160" s="7" t="s">
-        <v>998</v>
+      <c r="C160" s="11" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.2">
@@ -10597,8 +9511,8 @@
       <c r="B161" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="C161" s="7" t="s">
-        <v>999</v>
+      <c r="C161" s="11" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.2">
@@ -10608,8 +9522,8 @@
       <c r="B162" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="C162" s="7" t="s">
-        <v>1000</v>
+      <c r="C162" s="11" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.2">
@@ -10619,8 +9533,8 @@
       <c r="B163" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="C163" s="7" t="s">
-        <v>1001</v>
+      <c r="C163" s="11" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.2">
@@ -10630,8 +9544,8 @@
       <c r="B164" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="C164" s="7" t="s">
-        <v>1002</v>
+      <c r="C164" s="11" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.2">
@@ -10641,8 +9555,8 @@
       <c r="B165" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="C165" s="7" t="s">
-        <v>1003</v>
+      <c r="C165" s="11" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.2">
@@ -10652,8 +9566,8 @@
       <c r="B166" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="C166" s="7" t="s">
-        <v>1004</v>
+      <c r="C166" s="11" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.2">
@@ -10663,8 +9577,8 @@
       <c r="B167" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="C167" s="7" t="s">
-        <v>1005</v>
+      <c r="C167" s="11" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.2">
@@ -10674,8 +9588,8 @@
       <c r="B168" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="C168" s="7" t="s">
-        <v>1006</v>
+      <c r="C168" s="11" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.2">
@@ -10685,8 +9599,8 @@
       <c r="B169" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="C169" s="7" t="s">
-        <v>1007</v>
+      <c r="C169" s="11" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.2">
@@ -10696,8 +9610,8 @@
       <c r="B170" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="C170" s="7" t="s">
-        <v>1008</v>
+      <c r="C170" s="11" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.2">
@@ -10707,8 +9621,8 @@
       <c r="B171" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="C171" s="7" t="s">
-        <v>1009</v>
+      <c r="C171" s="11" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.2">
@@ -10719,7 +9633,7 @@
         <v>55</v>
       </c>
       <c r="C172" s="7" t="s">
-        <v>1010</v>
+        <v>388</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.2">
@@ -10730,7 +9644,7 @@
         <v>56</v>
       </c>
       <c r="C173" s="7" t="s">
-        <v>1011</v>
+        <v>390</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.2">
@@ -10741,7 +9655,7 @@
         <v>57</v>
       </c>
       <c r="C174" s="7" t="s">
-        <v>1012</v>
+        <v>390</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.2">
@@ -10752,7 +9666,7 @@
         <v>58</v>
       </c>
       <c r="C175" s="7" t="s">
-        <v>1013</v>
+        <v>390</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.2">
@@ -10763,7 +9677,7 @@
         <v>59</v>
       </c>
       <c r="C176" s="7" t="s">
-        <v>1014</v>
+        <v>388</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.2">
@@ -10774,7 +9688,7 @@
         <v>60</v>
       </c>
       <c r="C177" s="7" t="s">
-        <v>1015</v>
+        <v>390</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.2">
@@ -10785,7 +9699,7 @@
         <v>61</v>
       </c>
       <c r="C178" s="7" t="s">
-        <v>1016</v>
+        <v>390</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.2">
@@ -10796,7 +9710,7 @@
         <v>62</v>
       </c>
       <c r="C179" s="7" t="s">
-        <v>1017</v>
+        <v>388</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.2">
@@ -10807,7 +9721,7 @@
         <v>63</v>
       </c>
       <c r="C180" s="7" t="s">
-        <v>1018</v>
+        <v>390</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.2">
@@ -10818,7 +9732,7 @@
         <v>64</v>
       </c>
       <c r="C181" s="7" t="s">
-        <v>1019</v>
+        <v>390</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.2">
@@ -10829,7 +9743,7 @@
         <v>65</v>
       </c>
       <c r="C182" s="7" t="s">
-        <v>1020</v>
+        <v>390</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.2">
@@ -10840,7 +9754,7 @@
         <v>66</v>
       </c>
       <c r="C183" s="7" t="s">
-        <v>1021</v>
+        <v>388</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.2">
@@ -10851,7 +9765,7 @@
         <v>67</v>
       </c>
       <c r="C184" s="7" t="s">
-        <v>1022</v>
+        <v>390</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.2">
@@ -10862,7 +9776,7 @@
         <v>68</v>
       </c>
       <c r="C185" s="7" t="s">
-        <v>1023</v>
+        <v>388</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.2">
@@ -10873,7 +9787,7 @@
         <v>69</v>
       </c>
       <c r="C186" s="7" t="s">
-        <v>1024</v>
+        <v>390</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.2">
@@ -10884,7 +9798,7 @@
         <v>70</v>
       </c>
       <c r="C187" s="7" t="s">
-        <v>1025</v>
+        <v>390</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.2">
@@ -10895,7 +9809,7 @@
         <v>71</v>
       </c>
       <c r="C188" s="7" t="s">
-        <v>1026</v>
+        <v>390</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.2">
@@ -10906,7 +9820,7 @@
         <v>72</v>
       </c>
       <c r="C189" s="7" t="s">
-        <v>1027</v>
+        <v>390</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.2">
@@ -10917,7 +9831,7 @@
         <v>73</v>
       </c>
       <c r="C190" s="7" t="s">
-        <v>1028</v>
+        <v>390</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.2">
@@ -10928,7 +9842,7 @@
         <v>74</v>
       </c>
       <c r="C191" s="7" t="s">
-        <v>1029</v>
+        <v>388</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.2">
@@ -10939,7 +9853,7 @@
         <v>75</v>
       </c>
       <c r="C192" s="7" t="s">
-        <v>1030</v>
+        <v>388</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.2">
@@ -10950,7 +9864,7 @@
         <v>76</v>
       </c>
       <c r="C193" s="7" t="s">
-        <v>1031</v>
+        <v>388</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.2">
@@ -10961,7 +9875,7 @@
         <v>77</v>
       </c>
       <c r="C194" s="7" t="s">
-        <v>1032</v>
+        <v>388</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.2">
@@ -10972,7 +9886,7 @@
         <v>78</v>
       </c>
       <c r="C195" s="7" t="s">
-        <v>1033</v>
+        <v>390</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.2">
@@ -10983,7 +9897,7 @@
         <v>79</v>
       </c>
       <c r="C196" s="7" t="s">
-        <v>1034</v>
+        <v>388</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.2">
@@ -10994,7 +9908,7 @@
         <v>80</v>
       </c>
       <c r="C197" s="7" t="s">
-        <v>1035</v>
+        <v>390</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.2">
@@ -11005,7 +9919,7 @@
         <v>81</v>
       </c>
       <c r="C198" s="7" t="s">
-        <v>1036</v>
+        <v>388</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.2">
@@ -11016,7 +9930,7 @@
         <v>82</v>
       </c>
       <c r="C199" s="7" t="s">
-        <v>1037</v>
+        <v>390</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.2">
@@ -11027,7 +9941,7 @@
         <v>83</v>
       </c>
       <c r="C200" s="7" t="s">
-        <v>1038</v>
+        <v>388</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.2">
@@ -11038,7 +9952,7 @@
         <v>84</v>
       </c>
       <c r="C201" s="7" t="s">
-        <v>1039</v>
+        <v>388</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.2">
@@ -11049,7 +9963,7 @@
         <v>85</v>
       </c>
       <c r="C202" s="7" t="s">
-        <v>1040</v>
+        <v>390</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.2">
@@ -11060,7 +9974,7 @@
         <v>86</v>
       </c>
       <c r="C203" s="7" t="s">
-        <v>1041</v>
+        <v>390</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.2">
@@ -11071,7 +9985,7 @@
         <v>87</v>
       </c>
       <c r="C204" s="7" t="s">
-        <v>1042</v>
+        <v>390</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.2">
@@ -11082,7 +9996,7 @@
         <v>88</v>
       </c>
       <c r="C205" s="7" t="s">
-        <v>1043</v>
+        <v>390</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.2">
@@ -11093,7 +10007,7 @@
         <v>89</v>
       </c>
       <c r="C206" s="7" t="s">
-        <v>1044</v>
+        <v>390</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.2">
@@ -11104,7 +10018,7 @@
         <v>90</v>
       </c>
       <c r="C207" s="7" t="s">
-        <v>1045</v>
+        <v>390</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.2">
@@ -11115,7 +10029,7 @@
         <v>91</v>
       </c>
       <c r="C208" s="7" t="s">
-        <v>1046</v>
+        <v>388</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.2">
@@ -11126,7 +10040,7 @@
         <v>92</v>
       </c>
       <c r="C209" s="7" t="s">
-        <v>1047</v>
+        <v>388</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.2">
@@ -11137,7 +10051,7 @@
         <v>93</v>
       </c>
       <c r="C210" s="7" t="s">
-        <v>1048</v>
+        <v>388</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.2">
@@ -11148,7 +10062,7 @@
         <v>94</v>
       </c>
       <c r="C211" s="7" t="s">
-        <v>1049</v>
+        <v>390</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.2">
@@ -11159,7 +10073,7 @@
         <v>95</v>
       </c>
       <c r="C212" s="7" t="s">
-        <v>1050</v>
+        <v>388</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.2">
@@ -11170,7 +10084,7 @@
         <v>96</v>
       </c>
       <c r="C213" s="7" t="s">
-        <v>1051</v>
+        <v>388</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.2">
@@ -11181,7 +10095,7 @@
         <v>97</v>
       </c>
       <c r="C214" s="7" t="s">
-        <v>1052</v>
+        <v>390</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.2">
@@ -11192,7 +10106,7 @@
         <v>98</v>
       </c>
       <c r="C215" s="7" t="s">
-        <v>1053</v>
+        <v>390</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.2">
@@ -11203,7 +10117,7 @@
         <v>99</v>
       </c>
       <c r="C216" s="7" t="s">
-        <v>1054</v>
+        <v>388</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.2">
@@ -11214,7 +10128,7 @@
         <v>100</v>
       </c>
       <c r="C217" s="7" t="s">
-        <v>1055</v>
+        <v>388</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.2">
@@ -11225,7 +10139,7 @@
         <v>101</v>
       </c>
       <c r="C218" s="7" t="s">
-        <v>1056</v>
+        <v>388</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.2">
@@ -11236,7 +10150,7 @@
         <v>102</v>
       </c>
       <c r="C219" s="7" t="s">
-        <v>1057</v>
+        <v>390</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.2">
@@ -11247,7 +10161,7 @@
         <v>103</v>
       </c>
       <c r="C220" s="7" t="s">
-        <v>1058</v>
+        <v>388</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.2">
@@ -11258,7 +10172,7 @@
         <v>104</v>
       </c>
       <c r="C221" s="7" t="s">
-        <v>1059</v>
+        <v>388</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.2">
@@ -11269,7 +10183,7 @@
         <v>105</v>
       </c>
       <c r="C222" s="7" t="s">
-        <v>1060</v>
+        <v>388</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.2">
@@ -11280,7 +10194,7 @@
         <v>106</v>
       </c>
       <c r="C223" s="7" t="s">
-        <v>1061</v>
+        <v>390</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.2">
@@ -11291,7 +10205,7 @@
         <v>107</v>
       </c>
       <c r="C224" s="7" t="s">
-        <v>1062</v>
+        <v>390</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.2">
@@ -11302,7 +10216,7 @@
         <v>108</v>
       </c>
       <c r="C225" s="7" t="s">
-        <v>1063</v>
+        <v>390</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.2">
@@ -11313,7 +10227,7 @@
         <v>109</v>
       </c>
       <c r="C226" s="7" t="s">
-        <v>1064</v>
+        <v>390</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.2">
@@ -11324,7 +10238,7 @@
         <v>110</v>
       </c>
       <c r="C227" s="7" t="s">
-        <v>1065</v>
+        <v>388</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.2">
@@ -11335,7 +10249,7 @@
         <v>111</v>
       </c>
       <c r="C228" s="7" t="s">
-        <v>1066</v>
+        <v>388</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.2">
@@ -11346,7 +10260,7 @@
         <v>112</v>
       </c>
       <c r="C229" s="7" t="s">
-        <v>1067</v>
+        <v>388</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.2">
@@ -11357,7 +10271,7 @@
         <v>113</v>
       </c>
       <c r="C230" s="7" t="s">
-        <v>1068</v>
+        <v>388</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.2">
@@ -11368,7 +10282,7 @@
         <v>114</v>
       </c>
       <c r="C231" s="7" t="s">
-        <v>1069</v>
+        <v>390</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.2">
@@ -11379,7 +10293,7 @@
         <v>115</v>
       </c>
       <c r="C232" s="7" t="s">
-        <v>1070</v>
+        <v>390</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.2">
@@ -11390,7 +10304,7 @@
         <v>116</v>
       </c>
       <c r="C233" s="7" t="s">
-        <v>1071</v>
+        <v>390</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.2">
@@ -11401,7 +10315,7 @@
         <v>117</v>
       </c>
       <c r="C234" s="7" t="s">
-        <v>1072</v>
+        <v>388</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.2">
@@ -11412,7 +10326,7 @@
         <v>118</v>
       </c>
       <c r="C235" s="7" t="s">
-        <v>1073</v>
+        <v>390</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.2">
@@ -11423,7 +10337,7 @@
         <v>119</v>
       </c>
       <c r="C236" s="7" t="s">
-        <v>1074</v>
+        <v>390</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.2">
@@ -11434,7 +10348,7 @@
         <v>120</v>
       </c>
       <c r="C237" s="7" t="s">
-        <v>1075</v>
+        <v>390</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.2">
@@ -11445,7 +10359,7 @@
         <v>121</v>
       </c>
       <c r="C238" s="7" t="s">
-        <v>1076</v>
+        <v>390</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.2">
@@ -11456,7 +10370,7 @@
         <v>122</v>
       </c>
       <c r="C239" s="7" t="s">
-        <v>1077</v>
+        <v>388</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.2">
@@ -11467,7 +10381,7 @@
         <v>123</v>
       </c>
       <c r="C240" s="7" t="s">
-        <v>1078</v>
+        <v>390</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.2">
@@ -11478,7 +10392,7 @@
         <v>124</v>
       </c>
       <c r="C241" s="7" t="s">
-        <v>1079</v>
+        <v>390</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.2">
@@ -11489,7 +10403,7 @@
         <v>125</v>
       </c>
       <c r="C242" s="7" t="s">
-        <v>1080</v>
+        <v>390</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.2">
@@ -11500,7 +10414,7 @@
         <v>126</v>
       </c>
       <c r="C243" s="7" t="s">
-        <v>1081</v>
+        <v>388</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.2">
@@ -11511,7 +10425,7 @@
         <v>127</v>
       </c>
       <c r="C244" s="7" t="s">
-        <v>1082</v>
+        <v>390</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.2">
@@ -11522,7 +10436,7 @@
         <v>128</v>
       </c>
       <c r="C245" s="7" t="s">
-        <v>1083</v>
+        <v>390</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.2">
@@ -11533,7 +10447,7 @@
         <v>129</v>
       </c>
       <c r="C246" s="7" t="s">
-        <v>1084</v>
+        <v>388</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.2">
@@ -11544,7 +10458,7 @@
         <v>130</v>
       </c>
       <c r="C247" s="7" t="s">
-        <v>1085</v>
+        <v>390</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.2">
@@ -11555,7 +10469,7 @@
         <v>131</v>
       </c>
       <c r="C248" s="7" t="s">
-        <v>1086</v>
+        <v>390</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.2">
@@ -11566,7 +10480,7 @@
         <v>132</v>
       </c>
       <c r="C249" s="7" t="s">
-        <v>1087</v>
+        <v>390</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.2">
@@ -11577,7 +10491,7 @@
         <v>133</v>
       </c>
       <c r="C250" s="7" t="s">
-        <v>1088</v>
+        <v>388</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.2">
@@ -11588,7 +10502,7 @@
         <v>134</v>
       </c>
       <c r="C251" s="7" t="s">
-        <v>1089</v>
+        <v>388</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.2">
@@ -11599,7 +10513,7 @@
         <v>135</v>
       </c>
       <c r="C252" s="7" t="s">
-        <v>1090</v>
+        <v>390</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.2">
@@ -11610,7 +10524,7 @@
         <v>136</v>
       </c>
       <c r="C253" s="7" t="s">
-        <v>1091</v>
+        <v>388</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.2">
@@ -11621,7 +10535,7 @@
         <v>137</v>
       </c>
       <c r="C254" s="7" t="s">
-        <v>1092</v>
+        <v>390</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.2">
@@ -11632,7 +10546,7 @@
         <v>138</v>
       </c>
       <c r="C255" s="7" t="s">
-        <v>1093</v>
+        <v>388</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.2">
@@ -11643,7 +10557,7 @@
         <v>139</v>
       </c>
       <c r="C256" s="7" t="s">
-        <v>1094</v>
+        <v>390</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.2">
@@ -11654,7 +10568,7 @@
         <v>140</v>
       </c>
       <c r="C257" s="7" t="s">
-        <v>1095</v>
+        <v>390</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.2">
@@ -11665,7 +10579,7 @@
         <v>141</v>
       </c>
       <c r="C258" s="7" t="s">
-        <v>1096</v>
+        <v>388</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.2">
@@ -11676,7 +10590,7 @@
         <v>142</v>
       </c>
       <c r="C259" s="7" t="s">
-        <v>1097</v>
+        <v>388</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.2">
@@ -11687,7 +10601,7 @@
         <v>143</v>
       </c>
       <c r="C260" s="7" t="s">
-        <v>1098</v>
+        <v>388</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.2">
@@ -11698,7 +10612,7 @@
         <v>144</v>
       </c>
       <c r="C261" s="7" t="s">
-        <v>1099</v>
+        <v>388</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.2">
@@ -11709,7 +10623,7 @@
         <v>145</v>
       </c>
       <c r="C262" s="7" t="s">
-        <v>1100</v>
+        <v>390</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.2">
@@ -11720,7 +10634,7 @@
         <v>146</v>
       </c>
       <c r="C263" s="7" t="s">
-        <v>1101</v>
+        <v>390</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.2">
@@ -11731,7 +10645,7 @@
         <v>147</v>
       </c>
       <c r="C264" s="7" t="s">
-        <v>1102</v>
+        <v>390</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.2">
@@ -11742,7 +10656,7 @@
         <v>148</v>
       </c>
       <c r="C265" s="7" t="s">
-        <v>1103</v>
+        <v>390</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.2">
@@ -11753,7 +10667,7 @@
         <v>149</v>
       </c>
       <c r="C266" s="7" t="s">
-        <v>1104</v>
+        <v>390</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.2">
@@ -11764,7 +10678,7 @@
         <v>150</v>
       </c>
       <c r="C267" s="7" t="s">
-        <v>1105</v>
+        <v>388</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.2">
@@ -11775,7 +10689,7 @@
         <v>151</v>
       </c>
       <c r="C268" s="7" t="s">
-        <v>1106</v>
+        <v>390</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.2">
@@ -11786,7 +10700,7 @@
         <v>152</v>
       </c>
       <c r="C269" s="7" t="s">
-        <v>1107</v>
+        <v>388</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.2">
@@ -11797,7 +10711,7 @@
         <v>153</v>
       </c>
       <c r="C270" s="7" t="s">
-        <v>1108</v>
+        <v>388</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.2">
@@ -11808,7 +10722,7 @@
         <v>154</v>
       </c>
       <c r="C271" s="7" t="s">
-        <v>1109</v>
+        <v>388</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.2">
@@ -11819,7 +10733,7 @@
         <v>155</v>
       </c>
       <c r="C272" s="7" t="s">
-        <v>1110</v>
+        <v>390</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.2">
@@ -11830,7 +10744,7 @@
         <v>156</v>
       </c>
       <c r="C273" s="7" t="s">
-        <v>1111</v>
+        <v>390</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.2">
@@ -11841,7 +10755,7 @@
         <v>157</v>
       </c>
       <c r="C274" s="7" t="s">
-        <v>1112</v>
+        <v>388</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.2">
@@ -11852,7 +10766,7 @@
         <v>158</v>
       </c>
       <c r="C275" s="7" t="s">
-        <v>1113</v>
+        <v>388</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.2">
@@ -11863,7 +10777,7 @@
         <v>159</v>
       </c>
       <c r="C276" s="7" t="s">
-        <v>1114</v>
+        <v>390</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.2">
@@ -11874,7 +10788,7 @@
         <v>160</v>
       </c>
       <c r="C277" s="7" t="s">
-        <v>1115</v>
+        <v>388</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.2">
@@ -11885,7 +10799,7 @@
         <v>161</v>
       </c>
       <c r="C278" s="7" t="s">
-        <v>1116</v>
+        <v>388</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.2">
@@ -11895,8 +10809,8 @@
       <c r="B279" s="13" t="s">
         <v>162</v>
       </c>
-      <c r="C279" s="7" t="s">
-        <v>1117</v>
+      <c r="C279" s="11" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.2">
@@ -11906,8 +10820,8 @@
       <c r="B280" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="C280" s="7" t="s">
-        <v>1118</v>
+      <c r="C280" s="11" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.2">
@@ -11917,8 +10831,8 @@
       <c r="B281" s="13" t="s">
         <v>164</v>
       </c>
-      <c r="C281" s="7" t="s">
-        <v>1119</v>
+      <c r="C281" s="11" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.2">
@@ -11928,8 +10842,8 @@
       <c r="B282" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="C282" s="7" t="s">
-        <v>1120</v>
+      <c r="C282" s="11" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.2">
@@ -11939,8 +10853,8 @@
       <c r="B283" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="C283" s="7" t="s">
-        <v>1121</v>
+      <c r="C283" s="11" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.2">
@@ -11950,8 +10864,8 @@
       <c r="B284" s="13" t="s">
         <v>167</v>
       </c>
-      <c r="C284" s="7" t="s">
-        <v>1122</v>
+      <c r="C284" s="11" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.2">
@@ -11961,8 +10875,8 @@
       <c r="B285" s="13" t="s">
         <v>168</v>
       </c>
-      <c r="C285" s="7" t="s">
-        <v>1123</v>
+      <c r="C285" s="11" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.2">
@@ -11972,8 +10886,8 @@
       <c r="B286" s="13" t="s">
         <v>169</v>
       </c>
-      <c r="C286" s="7" t="s">
-        <v>1124</v>
+      <c r="C286" s="11" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.2">
@@ -11983,8 +10897,8 @@
       <c r="B287" s="13" t="s">
         <v>170</v>
       </c>
-      <c r="C287" s="7" t="s">
-        <v>1125</v>
+      <c r="C287" s="11" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.2">
@@ -11994,8 +10908,8 @@
       <c r="B288" s="13" t="s">
         <v>171</v>
       </c>
-      <c r="C288" s="7" t="s">
-        <v>1126</v>
+      <c r="C288" s="11" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.2">
@@ -12005,8 +10919,8 @@
       <c r="B289" s="13" t="s">
         <v>172</v>
       </c>
-      <c r="C289" s="7" t="s">
-        <v>1127</v>
+      <c r="C289" s="11" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.2">
@@ -12016,8 +10930,8 @@
       <c r="B290" s="13" t="s">
         <v>173</v>
       </c>
-      <c r="C290" s="7" t="s">
-        <v>1128</v>
+      <c r="C290" s="11" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.2">
@@ -12027,8 +10941,8 @@
       <c r="B291" s="13" t="s">
         <v>174</v>
       </c>
-      <c r="C291" s="7" t="s">
-        <v>1129</v>
+      <c r="C291" s="11" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.2">
@@ -12038,8 +10952,8 @@
       <c r="B292" s="13" t="s">
         <v>175</v>
       </c>
-      <c r="C292" s="7" t="s">
-        <v>1130</v>
+      <c r="C292" s="11" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.2">
@@ -12049,8 +10963,8 @@
       <c r="B293" s="13" t="s">
         <v>176</v>
       </c>
-      <c r="C293" s="7" t="s">
-        <v>1131</v>
+      <c r="C293" s="11" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.2">
@@ -12060,8 +10974,8 @@
       <c r="B294" s="13" t="s">
         <v>177</v>
       </c>
-      <c r="C294" s="7" t="s">
-        <v>1132</v>
+      <c r="C294" s="11" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.2">
@@ -12071,8 +10985,8 @@
       <c r="B295" s="13" t="s">
         <v>178</v>
       </c>
-      <c r="C295" s="7" t="s">
-        <v>1133</v>
+      <c r="C295" s="11" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.2">
@@ -12082,8 +10996,8 @@
       <c r="B296" s="13" t="s">
         <v>179</v>
       </c>
-      <c r="C296" s="7" t="s">
-        <v>1134</v>
+      <c r="C296" s="11" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.2">
@@ -12093,8 +11007,8 @@
       <c r="B297" s="13" t="s">
         <v>180</v>
       </c>
-      <c r="C297" s="7" t="s">
-        <v>1135</v>
+      <c r="C297" s="11" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.2">
@@ -12104,8 +11018,8 @@
       <c r="B298" s="13" t="s">
         <v>181</v>
       </c>
-      <c r="C298" s="7" t="s">
-        <v>1136</v>
+      <c r="C298" s="11" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.2">
@@ -12115,8 +11029,8 @@
       <c r="B299" s="13" t="s">
         <v>182</v>
       </c>
-      <c r="C299" s="7" t="s">
-        <v>1137</v>
+      <c r="C299" s="11" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.2">
@@ -12126,8 +11040,8 @@
       <c r="B300" s="13" t="s">
         <v>183</v>
       </c>
-      <c r="C300" s="7" t="s">
-        <v>1138</v>
+      <c r="C300" s="11" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.2">
@@ -12137,8 +11051,8 @@
       <c r="B301" s="13" t="s">
         <v>184</v>
       </c>
-      <c r="C301" s="7" t="s">
-        <v>1139</v>
+      <c r="C301" s="11" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.2">
@@ -12148,8 +11062,8 @@
       <c r="B302" s="13" t="s">
         <v>185</v>
       </c>
-      <c r="C302" s="7" t="s">
-        <v>1140</v>
+      <c r="C302" s="11" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.2">
@@ -12159,8 +11073,8 @@
       <c r="B303" s="13" t="s">
         <v>186</v>
       </c>
-      <c r="C303" s="7" t="s">
-        <v>1141</v>
+      <c r="C303" s="11" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.2">
@@ -12170,8 +11084,8 @@
       <c r="B304" s="13" t="s">
         <v>187</v>
       </c>
-      <c r="C304" s="7" t="s">
-        <v>1142</v>
+      <c r="C304" s="11" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.2">
@@ -12181,8 +11095,8 @@
       <c r="B305" s="13" t="s">
         <v>188</v>
       </c>
-      <c r="C305" s="7" t="s">
-        <v>1143</v>
+      <c r="C305" s="11" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.2">
@@ -12192,8 +11106,8 @@
       <c r="B306" s="13" t="s">
         <v>189</v>
       </c>
-      <c r="C306" s="7" t="s">
-        <v>1144</v>
+      <c r="C306" s="11" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.2">
@@ -12203,8 +11117,8 @@
       <c r="B307" s="13" t="s">
         <v>190</v>
       </c>
-      <c r="C307" s="7" t="s">
-        <v>1145</v>
+      <c r="C307" s="11" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.2">
@@ -12214,8 +11128,8 @@
       <c r="B308" s="13" t="s">
         <v>191</v>
       </c>
-      <c r="C308" s="7" t="s">
-        <v>1146</v>
+      <c r="C308" s="11" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.2">
@@ -12226,7 +11140,7 @@
         <v>192</v>
       </c>
       <c r="C309" s="7" t="s">
-        <v>1147</v>
+        <v>388</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.2">
@@ -12237,7 +11151,7 @@
         <v>193</v>
       </c>
       <c r="C310" s="7" t="s">
-        <v>1148</v>
+        <v>390</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.2">
@@ -12248,7 +11162,7 @@
         <v>194</v>
       </c>
       <c r="C311" s="7" t="s">
-        <v>1149</v>
+        <v>390</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.2">
@@ -12259,7 +11173,7 @@
         <v>195</v>
       </c>
       <c r="C312" s="7" t="s">
-        <v>1150</v>
+        <v>390</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.2">
@@ -12270,7 +11184,7 @@
         <v>196</v>
       </c>
       <c r="C313" s="7" t="s">
-        <v>1151</v>
+        <v>388</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.2">
@@ -12281,7 +11195,7 @@
         <v>197</v>
       </c>
       <c r="C314" s="7" t="s">
-        <v>1152</v>
+        <v>390</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.2">
@@ -12292,7 +11206,7 @@
         <v>198</v>
       </c>
       <c r="C315" s="7" t="s">
-        <v>1153</v>
+        <v>390</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.2">
@@ -12303,7 +11217,7 @@
         <v>199</v>
       </c>
       <c r="C316" s="7" t="s">
-        <v>1154</v>
+        <v>388</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.2">
@@ -12314,7 +11228,7 @@
         <v>200</v>
       </c>
       <c r="C317" s="7" t="s">
-        <v>1155</v>
+        <v>390</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.2">
@@ -12325,7 +11239,7 @@
         <v>201</v>
       </c>
       <c r="C318" s="7" t="s">
-        <v>1156</v>
+        <v>390</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.2">
@@ -12336,7 +11250,7 @@
         <v>202</v>
       </c>
       <c r="C319" s="7" t="s">
-        <v>1157</v>
+        <v>390</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.2">
@@ -12347,7 +11261,7 @@
         <v>203</v>
       </c>
       <c r="C320" s="7" t="s">
-        <v>1158</v>
+        <v>388</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.2">
@@ -12358,7 +11272,7 @@
         <v>204</v>
       </c>
       <c r="C321" s="7" t="s">
-        <v>1159</v>
+        <v>390</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.2">
@@ -12369,7 +11283,7 @@
         <v>205</v>
       </c>
       <c r="C322" s="7" t="s">
-        <v>1160</v>
+        <v>388</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.2">
@@ -12380,7 +11294,7 @@
         <v>206</v>
       </c>
       <c r="C323" s="7" t="s">
-        <v>1161</v>
+        <v>390</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.2">
@@ -12391,7 +11305,7 @@
         <v>207</v>
       </c>
       <c r="C324" s="7" t="s">
-        <v>1162</v>
+        <v>390</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.2">
@@ -12402,7 +11316,7 @@
         <v>208</v>
       </c>
       <c r="C325" s="7" t="s">
-        <v>1163</v>
+        <v>390</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.2">
@@ -12413,7 +11327,7 @@
         <v>209</v>
       </c>
       <c r="C326" s="7" t="s">
-        <v>1164</v>
+        <v>390</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.2">
@@ -12424,7 +11338,7 @@
         <v>210</v>
       </c>
       <c r="C327" s="7" t="s">
-        <v>1165</v>
+        <v>390</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.2">
@@ -12435,7 +11349,7 @@
         <v>211</v>
       </c>
       <c r="C328" s="7" t="s">
-        <v>1166</v>
+        <v>388</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.2">
@@ -12446,7 +11360,7 @@
         <v>212</v>
       </c>
       <c r="C329" s="7" t="s">
-        <v>1167</v>
+        <v>388</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.2">
@@ -12457,7 +11371,7 @@
         <v>213</v>
       </c>
       <c r="C330" s="7" t="s">
-        <v>1168</v>
+        <v>388</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.2">
@@ -12468,7 +11382,7 @@
         <v>214</v>
       </c>
       <c r="C331" s="7" t="s">
-        <v>1169</v>
+        <v>388</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.2">
@@ -12479,7 +11393,7 @@
         <v>215</v>
       </c>
       <c r="C332" s="7" t="s">
-        <v>1170</v>
+        <v>390</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.2">
@@ -12490,7 +11404,7 @@
         <v>216</v>
       </c>
       <c r="C333" s="7" t="s">
-        <v>1171</v>
+        <v>388</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.2">
@@ -12501,7 +11415,7 @@
         <v>217</v>
       </c>
       <c r="C334" s="7" t="s">
-        <v>1172</v>
+        <v>390</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.2">
@@ -12512,7 +11426,7 @@
         <v>218</v>
       </c>
       <c r="C335" s="7" t="s">
-        <v>1173</v>
+        <v>388</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.2">
@@ -12523,7 +11437,7 @@
         <v>219</v>
       </c>
       <c r="C336" s="7" t="s">
-        <v>1174</v>
+        <v>390</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.2">
@@ -12534,7 +11448,7 @@
         <v>220</v>
       </c>
       <c r="C337" s="7" t="s">
-        <v>1175</v>
+        <v>388</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.2">
@@ -12545,7 +11459,7 @@
         <v>221</v>
       </c>
       <c r="C338" s="7" t="s">
-        <v>1176</v>
+        <v>388</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.2">
@@ -12556,7 +11470,7 @@
         <v>222</v>
       </c>
       <c r="C339" s="7" t="s">
-        <v>1177</v>
+        <v>390</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.2">
@@ -12567,7 +11481,7 @@
         <v>223</v>
       </c>
       <c r="C340" s="7" t="s">
-        <v>1178</v>
+        <v>390</v>
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.2">
@@ -12578,7 +11492,7 @@
         <v>224</v>
       </c>
       <c r="C341" s="7" t="s">
-        <v>1179</v>
+        <v>390</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.2">
@@ -12589,7 +11503,7 @@
         <v>225</v>
       </c>
       <c r="C342" s="7" t="s">
-        <v>1180</v>
+        <v>390</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.2">
@@ -12600,7 +11514,7 @@
         <v>226</v>
       </c>
       <c r="C343" s="7" t="s">
-        <v>1181</v>
+        <v>390</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.2">
@@ -12611,7 +11525,7 @@
         <v>227</v>
       </c>
       <c r="C344" s="7" t="s">
-        <v>1182</v>
+        <v>390</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.2">
@@ -12622,7 +11536,7 @@
         <v>228</v>
       </c>
       <c r="C345" s="7" t="s">
-        <v>1183</v>
+        <v>388</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.2">
@@ -12633,7 +11547,7 @@
         <v>229</v>
       </c>
       <c r="C346" s="7" t="s">
-        <v>1184</v>
+        <v>388</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.2">
@@ -12644,7 +11558,7 @@
         <v>230</v>
       </c>
       <c r="C347" s="7" t="s">
-        <v>1185</v>
+        <v>388</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.2">
@@ -12655,7 +11569,7 @@
         <v>231</v>
       </c>
       <c r="C348" s="7" t="s">
-        <v>1186</v>
+        <v>390</v>
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.2">
@@ -12666,7 +11580,7 @@
         <v>232</v>
       </c>
       <c r="C349" s="7" t="s">
-        <v>1187</v>
+        <v>388</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.2">
@@ -12677,7 +11591,7 @@
         <v>233</v>
       </c>
       <c r="C350" s="7" t="s">
-        <v>1188</v>
+        <v>388</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.2">
@@ -12688,7 +11602,7 @@
         <v>234</v>
       </c>
       <c r="C351" s="7" t="s">
-        <v>1189</v>
+        <v>390</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.2">
@@ -12699,7 +11613,7 @@
         <v>235</v>
       </c>
       <c r="C352" s="7" t="s">
-        <v>1190</v>
+        <v>390</v>
       </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.2">
@@ -12710,7 +11624,7 @@
         <v>236</v>
       </c>
       <c r="C353" s="7" t="s">
-        <v>1191</v>
+        <v>388</v>
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.2">
@@ -12721,7 +11635,7 @@
         <v>237</v>
       </c>
       <c r="C354" s="7" t="s">
-        <v>1192</v>
+        <v>388</v>
       </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.2">
@@ -12732,7 +11646,7 @@
         <v>238</v>
       </c>
       <c r="C355" s="7" t="s">
-        <v>1193</v>
+        <v>388</v>
       </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.2">
@@ -12743,7 +11657,7 @@
         <v>239</v>
       </c>
       <c r="C356" s="7" t="s">
-        <v>1194</v>
+        <v>390</v>
       </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.2">
@@ -12754,7 +11668,7 @@
         <v>240</v>
       </c>
       <c r="C357" s="7" t="s">
-        <v>1195</v>
+        <v>388</v>
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.2">
@@ -12765,7 +11679,7 @@
         <v>241</v>
       </c>
       <c r="C358" s="7" t="s">
-        <v>1196</v>
+        <v>388</v>
       </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.2">
@@ -12776,7 +11690,7 @@
         <v>242</v>
       </c>
       <c r="C359" s="7" t="s">
-        <v>1197</v>
+        <v>388</v>
       </c>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.2">
@@ -12787,7 +11701,7 @@
         <v>243</v>
       </c>
       <c r="C360" s="7" t="s">
-        <v>1198</v>
+        <v>390</v>
       </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.2">
@@ -12798,7 +11712,7 @@
         <v>244</v>
       </c>
       <c r="C361" s="7" t="s">
-        <v>1199</v>
+        <v>390</v>
       </c>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.2">
@@ -12809,7 +11723,7 @@
         <v>245</v>
       </c>
       <c r="C362" s="7" t="s">
-        <v>1200</v>
+        <v>390</v>
       </c>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.2">
@@ -12820,7 +11734,7 @@
         <v>246</v>
       </c>
       <c r="C363" s="7" t="s">
-        <v>1201</v>
+        <v>390</v>
       </c>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.2">
@@ -12831,7 +11745,7 @@
         <v>247</v>
       </c>
       <c r="C364" s="7" t="s">
-        <v>1202</v>
+        <v>388</v>
       </c>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.2">
@@ -12842,7 +11756,7 @@
         <v>248</v>
       </c>
       <c r="C365" s="7" t="s">
-        <v>1203</v>
+        <v>388</v>
       </c>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.2">
@@ -12853,7 +11767,7 @@
         <v>249</v>
       </c>
       <c r="C366" s="7" t="s">
-        <v>1204</v>
+        <v>388</v>
       </c>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.2">
@@ -12864,7 +11778,7 @@
         <v>250</v>
       </c>
       <c r="C367" s="7" t="s">
-        <v>1205</v>
+        <v>388</v>
       </c>
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.2">
@@ -12875,7 +11789,7 @@
         <v>251</v>
       </c>
       <c r="C368" s="7" t="s">
-        <v>1206</v>
+        <v>390</v>
       </c>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.2">
@@ -12886,7 +11800,7 @@
         <v>252</v>
       </c>
       <c r="C369" s="7" t="s">
-        <v>1207</v>
+        <v>390</v>
       </c>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.2">
@@ -12897,7 +11811,7 @@
         <v>253</v>
       </c>
       <c r="C370" s="7" t="s">
-        <v>1208</v>
+        <v>390</v>
       </c>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.2">
@@ -12908,7 +11822,7 @@
         <v>254</v>
       </c>
       <c r="C371" s="7" t="s">
-        <v>1209</v>
+        <v>388</v>
       </c>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.2">
@@ -12919,7 +11833,7 @@
         <v>255</v>
       </c>
       <c r="C372" s="7" t="s">
-        <v>1210</v>
+        <v>390</v>
       </c>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.2">
@@ -12930,7 +11844,7 @@
         <v>256</v>
       </c>
       <c r="C373" s="7" t="s">
-        <v>1211</v>
+        <v>390</v>
       </c>
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.2">
@@ -12941,7 +11855,7 @@
         <v>257</v>
       </c>
       <c r="C374" s="7" t="s">
-        <v>1212</v>
+        <v>390</v>
       </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.2">
@@ -12952,7 +11866,7 @@
         <v>258</v>
       </c>
       <c r="C375" s="7" t="s">
-        <v>1213</v>
+        <v>390</v>
       </c>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.2">
@@ -12963,7 +11877,7 @@
         <v>259</v>
       </c>
       <c r="C376" s="7" t="s">
-        <v>1214</v>
+        <v>388</v>
       </c>
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.2">
@@ -12974,7 +11888,7 @@
         <v>260</v>
       </c>
       <c r="C377" s="7" t="s">
-        <v>1215</v>
+        <v>390</v>
       </c>
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.2">
@@ -12985,7 +11899,7 @@
         <v>261</v>
       </c>
       <c r="C378" s="7" t="s">
-        <v>1216</v>
+        <v>390</v>
       </c>
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.2">
@@ -12996,7 +11910,7 @@
         <v>262</v>
       </c>
       <c r="C379" s="7" t="s">
-        <v>1217</v>
+        <v>390</v>
       </c>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.2">
@@ -13007,7 +11921,7 @@
         <v>263</v>
       </c>
       <c r="C380" s="7" t="s">
-        <v>1218</v>
+        <v>388</v>
       </c>
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.2">
@@ -13018,7 +11932,7 @@
         <v>264</v>
       </c>
       <c r="C381" s="7" t="s">
-        <v>1219</v>
+        <v>390</v>
       </c>
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.2">
@@ -13029,7 +11943,7 @@
         <v>265</v>
       </c>
       <c r="C382" s="7" t="s">
-        <v>1220</v>
+        <v>390</v>
       </c>
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.2">
@@ -13040,7 +11954,7 @@
         <v>266</v>
       </c>
       <c r="C383" s="7" t="s">
-        <v>1221</v>
+        <v>388</v>
       </c>
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.2">
@@ -13051,7 +11965,7 @@
         <v>267</v>
       </c>
       <c r="C384" s="7" t="s">
-        <v>1222</v>
+        <v>390</v>
       </c>
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.2">
@@ -13062,7 +11976,7 @@
         <v>268</v>
       </c>
       <c r="C385" s="7" t="s">
-        <v>1223</v>
+        <v>390</v>
       </c>
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.2">
@@ -13073,7 +11987,7 @@
         <v>269</v>
       </c>
       <c r="C386" s="7" t="s">
-        <v>1224</v>
+        <v>390</v>
       </c>
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.2">
@@ -13084,7 +11998,7 @@
         <v>270</v>
       </c>
       <c r="C387" s="7" t="s">
-        <v>1225</v>
+        <v>388</v>
       </c>
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.2">
@@ -13095,7 +12009,7 @@
         <v>271</v>
       </c>
       <c r="C388" s="7" t="s">
-        <v>1226</v>
+        <v>388</v>
       </c>
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.2">
@@ -13106,7 +12020,7 @@
         <v>272</v>
       </c>
       <c r="C389" s="7" t="s">
-        <v>1227</v>
+        <v>390</v>
       </c>
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.2">
@@ -13117,7 +12031,7 @@
         <v>273</v>
       </c>
       <c r="C390" s="7" t="s">
-        <v>1228</v>
+        <v>388</v>
       </c>
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.2">
@@ -13128,7 +12042,7 @@
         <v>274</v>
       </c>
       <c r="C391" s="7" t="s">
-        <v>1229</v>
+        <v>390</v>
       </c>
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.2">
@@ -13139,7 +12053,7 @@
         <v>275</v>
       </c>
       <c r="C392" s="7" t="s">
-        <v>1230</v>
+        <v>388</v>
       </c>
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.2">
@@ -13150,7 +12064,7 @@
         <v>276</v>
       </c>
       <c r="C393" s="7" t="s">
-        <v>1231</v>
+        <v>390</v>
       </c>
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.2">
@@ -13161,7 +12075,7 @@
         <v>277</v>
       </c>
       <c r="C394" s="7" t="s">
-        <v>1232</v>
+        <v>390</v>
       </c>
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.2">
@@ -13172,7 +12086,7 @@
         <v>278</v>
       </c>
       <c r="C395" s="7" t="s">
-        <v>1233</v>
+        <v>388</v>
       </c>
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.2">
@@ -13183,7 +12097,7 @@
         <v>279</v>
       </c>
       <c r="C396" s="7" t="s">
-        <v>1234</v>
+        <v>388</v>
       </c>
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.2">
@@ -13194,7 +12108,7 @@
         <v>280</v>
       </c>
       <c r="C397" s="7" t="s">
-        <v>1235</v>
+        <v>388</v>
       </c>
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.2">
@@ -13205,7 +12119,7 @@
         <v>281</v>
       </c>
       <c r="C398" s="7" t="s">
-        <v>1236</v>
+        <v>388</v>
       </c>
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.2">
@@ -13216,7 +12130,7 @@
         <v>282</v>
       </c>
       <c r="C399" s="7" t="s">
-        <v>1237</v>
+        <v>390</v>
       </c>
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.2">
@@ -13227,7 +12141,7 @@
         <v>283</v>
       </c>
       <c r="C400" s="7" t="s">
-        <v>1238</v>
+        <v>390</v>
       </c>
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.2">
@@ -13238,7 +12152,7 @@
         <v>284</v>
       </c>
       <c r="C401" s="7" t="s">
-        <v>1239</v>
+        <v>390</v>
       </c>
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.2">
@@ -13249,7 +12163,7 @@
         <v>285</v>
       </c>
       <c r="C402" s="7" t="s">
-        <v>1240</v>
+        <v>390</v>
       </c>
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.2">
@@ -13260,7 +12174,7 @@
         <v>286</v>
       </c>
       <c r="C403" s="7" t="s">
-        <v>1241</v>
+        <v>390</v>
       </c>
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.2">
@@ -13271,7 +12185,7 @@
         <v>287</v>
       </c>
       <c r="C404" s="7" t="s">
-        <v>1242</v>
+        <v>388</v>
       </c>
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.2">
@@ -13282,7 +12196,7 @@
         <v>288</v>
       </c>
       <c r="C405" s="7" t="s">
-        <v>1243</v>
+        <v>390</v>
       </c>
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.2">
@@ -13293,7 +12207,7 @@
         <v>289</v>
       </c>
       <c r="C406" s="7" t="s">
-        <v>1244</v>
+        <v>388</v>
       </c>
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.2">
@@ -13304,7 +12218,7 @@
         <v>290</v>
       </c>
       <c r="C407" s="7" t="s">
-        <v>1245</v>
+        <v>388</v>
       </c>
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.2">
@@ -13315,7 +12229,7 @@
         <v>291</v>
       </c>
       <c r="C408" s="7" t="s">
-        <v>1246</v>
+        <v>388</v>
       </c>
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.2">
@@ -13326,7 +12240,7 @@
         <v>292</v>
       </c>
       <c r="C409" s="7" t="s">
-        <v>1247</v>
+        <v>390</v>
       </c>
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.2">
@@ -13337,7 +12251,7 @@
         <v>293</v>
       </c>
       <c r="C410" s="7" t="s">
-        <v>1248</v>
+        <v>390</v>
       </c>
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.2">
@@ -13348,7 +12262,7 @@
         <v>294</v>
       </c>
       <c r="C411" s="7" t="s">
-        <v>1249</v>
+        <v>388</v>
       </c>
     </row>
     <row r="412" spans="1:3" x14ac:dyDescent="0.2">
@@ -13359,7 +12273,7 @@
         <v>295</v>
       </c>
       <c r="C412" s="7" t="s">
-        <v>1250</v>
+        <v>388</v>
       </c>
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.2">
@@ -13370,7 +12284,7 @@
         <v>296</v>
       </c>
       <c r="C413" s="7" t="s">
-        <v>1251</v>
+        <v>390</v>
       </c>
     </row>
     <row r="414" spans="1:3" x14ac:dyDescent="0.2">
@@ -13381,7 +12295,7 @@
         <v>297</v>
       </c>
       <c r="C414" s="7" t="s">
-        <v>1252</v>
+        <v>388</v>
       </c>
     </row>
     <row r="415" spans="1:3" x14ac:dyDescent="0.2">
@@ -13392,7 +12306,7 @@
         <v>298</v>
       </c>
       <c r="C415" s="7" t="s">
-        <v>1253</v>
+        <v>388</v>
       </c>
     </row>
     <row r="416" spans="1:3" x14ac:dyDescent="0.2">
@@ -13402,8 +12316,8 @@
       <c r="B416" s="13" t="s">
         <v>299</v>
       </c>
-      <c r="C416" s="7" t="s">
-        <v>1254</v>
+      <c r="C416" s="11" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.2">
@@ -13413,8 +12327,8 @@
       <c r="B417" s="13" t="s">
         <v>300</v>
       </c>
-      <c r="C417" s="7" t="s">
-        <v>1255</v>
+      <c r="C417" s="11" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="418" spans="1:3" x14ac:dyDescent="0.2">
@@ -13424,8 +12338,8 @@
       <c r="B418" s="13" t="s">
         <v>301</v>
       </c>
-      <c r="C418" s="7" t="s">
-        <v>1256</v>
+      <c r="C418" s="11" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.2">
@@ -13435,8 +12349,8 @@
       <c r="B419" s="13" t="s">
         <v>302</v>
       </c>
-      <c r="C419" s="7" t="s">
-        <v>1257</v>
+      <c r="C419" s="11" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.2">
@@ -13446,8 +12360,8 @@
       <c r="B420" s="13" t="s">
         <v>303</v>
       </c>
-      <c r="C420" s="7" t="s">
-        <v>1258</v>
+      <c r="C420" s="11" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="421" spans="1:3" x14ac:dyDescent="0.2">
@@ -13457,8 +12371,8 @@
       <c r="B421" s="13" t="s">
         <v>304</v>
       </c>
-      <c r="C421" s="7" t="s">
-        <v>1259</v>
+      <c r="C421" s="11" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="422" spans="1:3" x14ac:dyDescent="0.2">
@@ -13468,8 +12382,8 @@
       <c r="B422" s="13" t="s">
         <v>305</v>
       </c>
-      <c r="C422" s="7" t="s">
-        <v>1260</v>
+      <c r="C422" s="11" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="423" spans="1:3" x14ac:dyDescent="0.2">
@@ -13479,8 +12393,8 @@
       <c r="B423" s="13" t="s">
         <v>306</v>
       </c>
-      <c r="C423" s="7" t="s">
-        <v>1261</v>
+      <c r="C423" s="11" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="424" spans="1:3" x14ac:dyDescent="0.2">
@@ -13490,8 +12404,8 @@
       <c r="B424" s="13" t="s">
         <v>307</v>
       </c>
-      <c r="C424" s="7" t="s">
-        <v>1262</v>
+      <c r="C424" s="11" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="425" spans="1:3" x14ac:dyDescent="0.2">
@@ -13501,8 +12415,8 @@
       <c r="B425" s="13" t="s">
         <v>308</v>
       </c>
-      <c r="C425" s="7" t="s">
-        <v>1263</v>
+      <c r="C425" s="11" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="426" spans="1:3" x14ac:dyDescent="0.2">
@@ -13512,8 +12426,8 @@
       <c r="B426" s="13" t="s">
         <v>309</v>
       </c>
-      <c r="C426" s="7" t="s">
-        <v>1264</v>
+      <c r="C426" s="11" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="427" spans="1:3" x14ac:dyDescent="0.2">
@@ -13523,8 +12437,8 @@
       <c r="B427" s="13" t="s">
         <v>310</v>
       </c>
-      <c r="C427" s="7" t="s">
-        <v>1265</v>
+      <c r="C427" s="11" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="428" spans="1:3" x14ac:dyDescent="0.2">
@@ -13534,8 +12448,8 @@
       <c r="B428" s="13" t="s">
         <v>311</v>
       </c>
-      <c r="C428" s="7" t="s">
-        <v>1266</v>
+      <c r="C428" s="11" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="429" spans="1:3" x14ac:dyDescent="0.2">
@@ -13545,8 +12459,8 @@
       <c r="B429" s="13" t="s">
         <v>312</v>
       </c>
-      <c r="C429" s="7" t="s">
-        <v>1267</v>
+      <c r="C429" s="11" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="430" spans="1:3" x14ac:dyDescent="0.2">
@@ -13556,8 +12470,8 @@
       <c r="B430" s="13" t="s">
         <v>313</v>
       </c>
-      <c r="C430" s="7" t="s">
-        <v>1268</v>
+      <c r="C430" s="11" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="431" spans="1:3" x14ac:dyDescent="0.2">
@@ -13567,8 +12481,8 @@
       <c r="B431" s="13" t="s">
         <v>314</v>
       </c>
-      <c r="C431" s="7" t="s">
-        <v>1269</v>
+      <c r="C431" s="11" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="432" spans="1:3" x14ac:dyDescent="0.2">
@@ -13578,8 +12492,8 @@
       <c r="B432" s="13" t="s">
         <v>315</v>
       </c>
-      <c r="C432" s="7" t="s">
-        <v>1270</v>
+      <c r="C432" s="11" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="433" spans="1:3" x14ac:dyDescent="0.2">
@@ -13589,8 +12503,8 @@
       <c r="B433" s="13" t="s">
         <v>316</v>
       </c>
-      <c r="C433" s="7" t="s">
-        <v>1271</v>
+      <c r="C433" s="11" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="434" spans="1:3" x14ac:dyDescent="0.2">
@@ -13600,8 +12514,8 @@
       <c r="B434" s="13" t="s">
         <v>317</v>
       </c>
-      <c r="C434" s="7" t="s">
-        <v>1272</v>
+      <c r="C434" s="11" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="435" spans="1:3" x14ac:dyDescent="0.2">
@@ -13611,8 +12525,8 @@
       <c r="B435" s="13" t="s">
         <v>318</v>
       </c>
-      <c r="C435" s="7" t="s">
-        <v>1273</v>
+      <c r="C435" s="11" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="436" spans="1:3" x14ac:dyDescent="0.2">
@@ -13622,8 +12536,8 @@
       <c r="B436" s="13" t="s">
         <v>319</v>
       </c>
-      <c r="C436" s="7" t="s">
-        <v>1274</v>
+      <c r="C436" s="11" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="437" spans="1:3" x14ac:dyDescent="0.2">
@@ -13633,8 +12547,8 @@
       <c r="B437" s="13" t="s">
         <v>320</v>
       </c>
-      <c r="C437" s="7" t="s">
-        <v>1275</v>
+      <c r="C437" s="11" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="438" spans="1:3" x14ac:dyDescent="0.2">
@@ -13644,8 +12558,8 @@
       <c r="B438" s="13" t="s">
         <v>321</v>
       </c>
-      <c r="C438" s="7" t="s">
-        <v>1276</v>
+      <c r="C438" s="11" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="439" spans="1:3" x14ac:dyDescent="0.2">
@@ -13655,8 +12569,8 @@
       <c r="B439" s="13" t="s">
         <v>322</v>
       </c>
-      <c r="C439" s="7" t="s">
-        <v>1277</v>
+      <c r="C439" s="11" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="440" spans="1:3" x14ac:dyDescent="0.2">
@@ -13666,8 +12580,8 @@
       <c r="B440" s="13" t="s">
         <v>323</v>
       </c>
-      <c r="C440" s="7" t="s">
-        <v>1278</v>
+      <c r="C440" s="11" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="441" spans="1:3" x14ac:dyDescent="0.2">
@@ -13677,8 +12591,8 @@
       <c r="B441" s="13" t="s">
         <v>324</v>
       </c>
-      <c r="C441" s="7" t="s">
-        <v>1279</v>
+      <c r="C441" s="11" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="442" spans="1:3" x14ac:dyDescent="0.2">
@@ -13688,8 +12602,8 @@
       <c r="B442" s="13" t="s">
         <v>325</v>
       </c>
-      <c r="C442" s="7" t="s">
-        <v>1280</v>
+      <c r="C442" s="11" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="443" spans="1:3" x14ac:dyDescent="0.2">
@@ -13699,8 +12613,8 @@
       <c r="B443" s="13" t="s">
         <v>326</v>
       </c>
-      <c r="C443" s="7" t="s">
-        <v>1281</v>
+      <c r="C443" s="11" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="444" spans="1:3" x14ac:dyDescent="0.2">
@@ -13710,8 +12624,8 @@
       <c r="B444" s="13" t="s">
         <v>327</v>
       </c>
-      <c r="C444" s="7" t="s">
-        <v>1282</v>
+      <c r="C444" s="11" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="445" spans="1:3" x14ac:dyDescent="0.2">
@@ -13721,8 +12635,8 @@
       <c r="B445" s="13" t="s">
         <v>328</v>
       </c>
-      <c r="C445" s="7" t="s">
-        <v>1283</v>
+      <c r="C445" s="11" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="446" spans="1:3" x14ac:dyDescent="0.2">
@@ -13733,7 +12647,7 @@
         <v>329</v>
       </c>
       <c r="C446" s="7" t="s">
-        <v>1284</v>
+        <v>388</v>
       </c>
     </row>
     <row r="447" spans="1:3" x14ac:dyDescent="0.2">
@@ -13744,7 +12658,7 @@
         <v>330</v>
       </c>
       <c r="C447" s="7" t="s">
-        <v>1285</v>
+        <v>390</v>
       </c>
     </row>
     <row r="448" spans="1:3" x14ac:dyDescent="0.2">
@@ -13755,7 +12669,7 @@
         <v>331</v>
       </c>
       <c r="C448" s="7" t="s">
-        <v>1286</v>
+        <v>390</v>
       </c>
     </row>
     <row r="449" spans="1:3" x14ac:dyDescent="0.2">
@@ -13766,7 +12680,7 @@
         <v>332</v>
       </c>
       <c r="C449" s="7" t="s">
-        <v>1287</v>
+        <v>390</v>
       </c>
     </row>
     <row r="450" spans="1:3" x14ac:dyDescent="0.2">
@@ -13777,7 +12691,7 @@
         <v>333</v>
       </c>
       <c r="C450" s="7" t="s">
-        <v>1288</v>
+        <v>388</v>
       </c>
     </row>
     <row r="451" spans="1:3" x14ac:dyDescent="0.2">
@@ -13788,7 +12702,7 @@
         <v>334</v>
       </c>
       <c r="C451" s="7" t="s">
-        <v>1289</v>
+        <v>390</v>
       </c>
     </row>
     <row r="452" spans="1:3" x14ac:dyDescent="0.2">
@@ -13799,7 +12713,7 @@
         <v>335</v>
       </c>
       <c r="C452" s="7" t="s">
-        <v>1290</v>
+        <v>390</v>
       </c>
     </row>
     <row r="453" spans="1:3" x14ac:dyDescent="0.2">
@@ -13810,7 +12724,7 @@
         <v>336</v>
       </c>
       <c r="C453" s="7" t="s">
-        <v>1291</v>
+        <v>388</v>
       </c>
     </row>
     <row r="454" spans="1:3" x14ac:dyDescent="0.2">
@@ -13821,7 +12735,7 @@
         <v>337</v>
       </c>
       <c r="C454" s="7" t="s">
-        <v>1292</v>
+        <v>390</v>
       </c>
     </row>
     <row r="455" spans="1:3" x14ac:dyDescent="0.2">
@@ -13832,7 +12746,7 @@
         <v>338</v>
       </c>
       <c r="C455" s="7" t="s">
-        <v>1293</v>
+        <v>390</v>
       </c>
     </row>
     <row r="456" spans="1:3" x14ac:dyDescent="0.2">
@@ -13843,7 +12757,7 @@
         <v>339</v>
       </c>
       <c r="C456" s="7" t="s">
-        <v>1294</v>
+        <v>390</v>
       </c>
     </row>
     <row r="457" spans="1:3" x14ac:dyDescent="0.2">
@@ -13854,7 +12768,7 @@
         <v>340</v>
       </c>
       <c r="C457" s="7" t="s">
-        <v>1295</v>
+        <v>388</v>
       </c>
     </row>
     <row r="458" spans="1:3" x14ac:dyDescent="0.2">
@@ -13865,7 +12779,7 @@
         <v>341</v>
       </c>
       <c r="C458" s="7" t="s">
-        <v>1296</v>
+        <v>390</v>
       </c>
     </row>
     <row r="459" spans="1:3" x14ac:dyDescent="0.2">
@@ -13876,7 +12790,7 @@
         <v>342</v>
       </c>
       <c r="C459" s="7" t="s">
-        <v>1297</v>
+        <v>388</v>
       </c>
     </row>
     <row r="460" spans="1:3" x14ac:dyDescent="0.2">
@@ -13887,7 +12801,7 @@
         <v>343</v>
       </c>
       <c r="C460" s="7" t="s">
-        <v>1298</v>
+        <v>390</v>
       </c>
     </row>
     <row r="461" spans="1:3" x14ac:dyDescent="0.2">
@@ -13898,7 +12812,7 @@
         <v>344</v>
       </c>
       <c r="C461" s="7" t="s">
-        <v>1299</v>
+        <v>390</v>
       </c>
     </row>
     <row r="462" spans="1:3" x14ac:dyDescent="0.2">
@@ -13909,7 +12823,7 @@
         <v>345</v>
       </c>
       <c r="C462" s="7" t="s">
-        <v>1300</v>
+        <v>390</v>
       </c>
     </row>
     <row r="463" spans="1:3" x14ac:dyDescent="0.2">
@@ -13920,7 +12834,7 @@
         <v>346</v>
       </c>
       <c r="C463" s="7" t="s">
-        <v>1301</v>
+        <v>390</v>
       </c>
     </row>
     <row r="464" spans="1:3" x14ac:dyDescent="0.2">
@@ -13931,7 +12845,7 @@
         <v>347</v>
       </c>
       <c r="C464" s="7" t="s">
-        <v>1302</v>
+        <v>390</v>
       </c>
     </row>
     <row r="465" spans="1:3" x14ac:dyDescent="0.2">
@@ -13942,7 +12856,7 @@
         <v>348</v>
       </c>
       <c r="C465" s="7" t="s">
-        <v>1303</v>
+        <v>388</v>
       </c>
     </row>
     <row r="466" spans="1:3" x14ac:dyDescent="0.2">
@@ -13953,7 +12867,7 @@
         <v>349</v>
       </c>
       <c r="C466" s="7" t="s">
-        <v>1304</v>
+        <v>388</v>
       </c>
     </row>
     <row r="467" spans="1:3" x14ac:dyDescent="0.2">
@@ -13964,7 +12878,7 @@
         <v>350</v>
       </c>
       <c r="C467" s="7" t="s">
-        <v>1305</v>
+        <v>388</v>
       </c>
     </row>
     <row r="468" spans="1:3" x14ac:dyDescent="0.2">
@@ -13975,7 +12889,7 @@
         <v>351</v>
       </c>
       <c r="C468" s="7" t="s">
-        <v>1306</v>
+        <v>388</v>
       </c>
     </row>
     <row r="469" spans="1:3" x14ac:dyDescent="0.2">
@@ -13986,7 +12900,7 @@
         <v>352</v>
       </c>
       <c r="C469" s="7" t="s">
-        <v>1307</v>
+        <v>390</v>
       </c>
     </row>
     <row r="470" spans="1:3" x14ac:dyDescent="0.2">
@@ -13997,7 +12911,7 @@
         <v>353</v>
       </c>
       <c r="C470" s="7" t="s">
-        <v>1308</v>
+        <v>388</v>
       </c>
     </row>
     <row r="471" spans="1:3" x14ac:dyDescent="0.2">
@@ -14008,7 +12922,7 @@
         <v>354</v>
       </c>
       <c r="C471" s="7" t="s">
-        <v>1309</v>
+        <v>390</v>
       </c>
     </row>
     <row r="472" spans="1:3" x14ac:dyDescent="0.2">
@@ -14019,7 +12933,7 @@
         <v>355</v>
       </c>
       <c r="C472" s="7" t="s">
-        <v>1310</v>
+        <v>388</v>
       </c>
     </row>
     <row r="473" spans="1:3" x14ac:dyDescent="0.2">
@@ -14030,7 +12944,7 @@
         <v>356</v>
       </c>
       <c r="C473" s="7" t="s">
-        <v>1311</v>
+        <v>390</v>
       </c>
     </row>
     <row r="474" spans="1:3" x14ac:dyDescent="0.2">
@@ -14041,7 +12955,7 @@
         <v>357</v>
       </c>
       <c r="C474" s="7" t="s">
-        <v>1312</v>
+        <v>388</v>
       </c>
     </row>
     <row r="475" spans="1:3" x14ac:dyDescent="0.2">
@@ -14052,7 +12966,7 @@
         <v>358</v>
       </c>
       <c r="C475" s="7" t="s">
-        <v>1313</v>
+        <v>388</v>
       </c>
     </row>
     <row r="476" spans="1:3" x14ac:dyDescent="0.2">
@@ -14063,7 +12977,7 @@
         <v>359</v>
       </c>
       <c r="C476" s="7" t="s">
-        <v>1314</v>
+        <v>390</v>
       </c>
     </row>
     <row r="477" spans="1:3" x14ac:dyDescent="0.2">
@@ -14074,7 +12988,7 @@
         <v>360</v>
       </c>
       <c r="C477" s="7" t="s">
-        <v>1315</v>
+        <v>390</v>
       </c>
     </row>
     <row r="478" spans="1:3" x14ac:dyDescent="0.2">
@@ -14085,7 +12999,7 @@
         <v>361</v>
       </c>
       <c r="C478" s="7" t="s">
-        <v>1316</v>
+        <v>390</v>
       </c>
     </row>
     <row r="479" spans="1:3" x14ac:dyDescent="0.2">
@@ -14096,7 +13010,7 @@
         <v>362</v>
       </c>
       <c r="C479" s="7" t="s">
-        <v>1317</v>
+        <v>390</v>
       </c>
     </row>
     <row r="480" spans="1:3" x14ac:dyDescent="0.2">
@@ -14107,7 +13021,7 @@
         <v>363</v>
       </c>
       <c r="C480" s="7" t="s">
-        <v>1318</v>
+        <v>390</v>
       </c>
     </row>
     <row r="481" spans="1:3" x14ac:dyDescent="0.2">
@@ -14118,7 +13032,7 @@
         <v>364</v>
       </c>
       <c r="C481" s="7" t="s">
-        <v>1319</v>
+        <v>390</v>
       </c>
     </row>
     <row r="482" spans="1:3" x14ac:dyDescent="0.2">
@@ -14129,7 +13043,7 @@
         <v>365</v>
       </c>
       <c r="C482" s="7" t="s">
-        <v>1320</v>
+        <v>388</v>
       </c>
     </row>
     <row r="483" spans="1:3" x14ac:dyDescent="0.2">
@@ -14140,7 +13054,7 @@
         <v>366</v>
       </c>
       <c r="C483" s="7" t="s">
-        <v>1321</v>
+        <v>388</v>
       </c>
     </row>
     <row r="484" spans="1:3" x14ac:dyDescent="0.2">
@@ -14151,7 +13065,7 @@
         <v>367</v>
       </c>
       <c r="C484" s="7" t="s">
-        <v>1322</v>
+        <v>388</v>
       </c>
     </row>
     <row r="485" spans="1:3" x14ac:dyDescent="0.2">
@@ -14162,7 +13076,7 @@
         <v>368</v>
       </c>
       <c r="C485" s="7" t="s">
-        <v>1323</v>
+        <v>390</v>
       </c>
     </row>
     <row r="486" spans="1:3" x14ac:dyDescent="0.2">
@@ -14173,7 +13087,7 @@
         <v>369</v>
       </c>
       <c r="C486" s="7" t="s">
-        <v>1324</v>
+        <v>388</v>
       </c>
     </row>
     <row r="487" spans="1:3" x14ac:dyDescent="0.2">
@@ -14184,7 +13098,7 @@
         <v>370</v>
       </c>
       <c r="C487" s="7" t="s">
-        <v>1325</v>
+        <v>388</v>
       </c>
     </row>
     <row r="488" spans="1:3" x14ac:dyDescent="0.2">
@@ -14195,7 +13109,7 @@
         <v>371</v>
       </c>
       <c r="C488" s="7" t="s">
-        <v>1326</v>
+        <v>390</v>
       </c>
     </row>
     <row r="489" spans="1:3" x14ac:dyDescent="0.2">
@@ -14206,7 +13120,7 @@
         <v>372</v>
       </c>
       <c r="C489" s="7" t="s">
-        <v>1327</v>
+        <v>390</v>
       </c>
     </row>
     <row r="490" spans="1:3" x14ac:dyDescent="0.2">
@@ -14217,7 +13131,7 @@
         <v>373</v>
       </c>
       <c r="C490" s="7" t="s">
-        <v>1328</v>
+        <v>388</v>
       </c>
     </row>
     <row r="491" spans="1:3" x14ac:dyDescent="0.2">
@@ -14228,7 +13142,7 @@
         <v>374</v>
       </c>
       <c r="C491" s="7" t="s">
-        <v>1329</v>
+        <v>388</v>
       </c>
     </row>
     <row r="492" spans="1:3" x14ac:dyDescent="0.2">
@@ -14239,7 +13153,7 @@
         <v>375</v>
       </c>
       <c r="C492" s="7" t="s">
-        <v>1330</v>
+        <v>388</v>
       </c>
     </row>
     <row r="493" spans="1:3" x14ac:dyDescent="0.2">
@@ -14250,7 +13164,7 @@
         <v>376</v>
       </c>
       <c r="C493" s="7" t="s">
-        <v>1331</v>
+        <v>390</v>
       </c>
     </row>
     <row r="494" spans="1:3" x14ac:dyDescent="0.2">
@@ -14261,7 +13175,7 @@
         <v>377</v>
       </c>
       <c r="C494" s="7" t="s">
-        <v>1332</v>
+        <v>388</v>
       </c>
     </row>
     <row r="495" spans="1:3" x14ac:dyDescent="0.2">
@@ -14272,7 +13186,7 @@
         <v>378</v>
       </c>
       <c r="C495" s="7" t="s">
-        <v>1333</v>
+        <v>388</v>
       </c>
     </row>
     <row r="496" spans="1:3" x14ac:dyDescent="0.2">
@@ -14283,7 +13197,7 @@
         <v>379</v>
       </c>
       <c r="C496" s="7" t="s">
-        <v>1334</v>
+        <v>388</v>
       </c>
     </row>
     <row r="497" spans="1:3" x14ac:dyDescent="0.2">
@@ -14294,7 +13208,7 @@
         <v>380</v>
       </c>
       <c r="C497" s="7" t="s">
-        <v>1335</v>
+        <v>390</v>
       </c>
     </row>
     <row r="498" spans="1:3" x14ac:dyDescent="0.2">
@@ -14305,7 +13219,7 @@
         <v>381</v>
       </c>
       <c r="C498" s="7" t="s">
-        <v>1336</v>
+        <v>390</v>
       </c>
     </row>
     <row r="499" spans="1:3" x14ac:dyDescent="0.2">
@@ -14316,7 +13230,7 @@
         <v>382</v>
       </c>
       <c r="C499" s="7" t="s">
-        <v>1337</v>
+        <v>390</v>
       </c>
     </row>
     <row r="500" spans="1:3" x14ac:dyDescent="0.2">
@@ -14327,7 +13241,7 @@
         <v>383</v>
       </c>
       <c r="C500" s="7" t="s">
-        <v>1338</v>
+        <v>390</v>
       </c>
     </row>
     <row r="501" spans="1:3" x14ac:dyDescent="0.2">
@@ -14338,7 +13252,7 @@
         <v>384</v>
       </c>
       <c r="C501" s="7" t="s">
-        <v>1339</v>
+        <v>388</v>
       </c>
     </row>
     <row r="502" spans="1:3" x14ac:dyDescent="0.2">
@@ -14349,7 +13263,7 @@
         <v>385</v>
       </c>
       <c r="C502" s="7" t="s">
-        <v>1340</v>
+        <v>388</v>
       </c>
     </row>
     <row r="503" spans="1:3" x14ac:dyDescent="0.2">
@@ -14360,7 +13274,7 @@
         <v>386</v>
       </c>
       <c r="C503" s="7" t="s">
-        <v>1341</v>
+        <v>388</v>
       </c>
     </row>
     <row r="504" spans="1:3" x14ac:dyDescent="0.2">
@@ -14371,7 +13285,7 @@
         <v>529</v>
       </c>
       <c r="C504" s="7" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="505" spans="1:3" x14ac:dyDescent="0.2">
@@ -14382,7 +13296,7 @@
         <v>530</v>
       </c>
       <c r="C505" s="7" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
     </row>
     <row r="506" spans="1:3" x14ac:dyDescent="0.2">
@@ -14404,7 +13318,7 @@
         <v>532</v>
       </c>
       <c r="C507" s="7" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
     </row>
     <row r="508" spans="1:3" x14ac:dyDescent="0.2">
@@ -14437,7 +13351,7 @@
         <v>535</v>
       </c>
       <c r="C510" s="7" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
     </row>
     <row r="511" spans="1:3" x14ac:dyDescent="0.2">
@@ -14448,7 +13362,7 @@
         <v>536</v>
       </c>
       <c r="C511" s="7" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
     </row>
     <row r="512" spans="1:3" x14ac:dyDescent="0.2">
@@ -14459,7 +13373,7 @@
         <v>537</v>
       </c>
       <c r="C512" s="7" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
     </row>
     <row r="513" spans="1:3" x14ac:dyDescent="0.2">
@@ -14470,7 +13384,7 @@
         <v>538</v>
       </c>
       <c r="C513" s="7" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="514" spans="1:3" x14ac:dyDescent="0.2">
@@ -14481,7 +13395,7 @@
         <v>539</v>
       </c>
       <c r="C514" s="7" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
     </row>
     <row r="515" spans="1:3" x14ac:dyDescent="0.2">
@@ -14492,7 +13406,7 @@
         <v>540</v>
       </c>
       <c r="C515" s="7" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
     </row>
     <row r="516" spans="1:3" x14ac:dyDescent="0.2">
@@ -14514,7 +13428,7 @@
         <v>542</v>
       </c>
       <c r="C517" s="7" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="518" spans="1:3" x14ac:dyDescent="0.2">
@@ -14569,7 +13483,7 @@
         <v>547</v>
       </c>
       <c r="C522" s="7" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
     </row>
     <row r="523" spans="1:3" x14ac:dyDescent="0.2">
@@ -14602,7 +13516,7 @@
         <v>550</v>
       </c>
       <c r="C525" s="7" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="526" spans="1:3" x14ac:dyDescent="0.2">
@@ -14613,7 +13527,7 @@
         <v>551</v>
       </c>
       <c r="C526" s="7" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
     </row>
     <row r="527" spans="1:3" x14ac:dyDescent="0.2">
@@ -14635,7 +13549,7 @@
         <v>553</v>
       </c>
       <c r="C528" s="7" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
     </row>
     <row r="529" spans="1:3" x14ac:dyDescent="0.2">
@@ -14646,7 +13560,7 @@
         <v>554</v>
       </c>
       <c r="C529" s="7" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="530" spans="1:3" x14ac:dyDescent="0.2">
@@ -14657,7 +13571,7 @@
         <v>555</v>
       </c>
       <c r="C530" s="7" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
     </row>
     <row r="531" spans="1:3" x14ac:dyDescent="0.2">
@@ -14690,7 +13604,7 @@
         <v>558</v>
       </c>
       <c r="C533" s="7" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="534" spans="1:3" x14ac:dyDescent="0.2">
@@ -14701,7 +13615,7 @@
         <v>559</v>
       </c>
       <c r="C534" s="7" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="535" spans="1:3" x14ac:dyDescent="0.2">
@@ -14723,7 +13637,7 @@
         <v>561</v>
       </c>
       <c r="C536" s="7" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
     </row>
     <row r="537" spans="1:3" x14ac:dyDescent="0.2">
@@ -14734,7 +13648,7 @@
         <v>562</v>
       </c>
       <c r="C537" s="7" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
     </row>
     <row r="538" spans="1:3" x14ac:dyDescent="0.2">
@@ -14767,7 +13681,7 @@
         <v>565</v>
       </c>
       <c r="C540" s="7" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
     </row>
     <row r="541" spans="1:3" x14ac:dyDescent="0.2">
@@ -14778,7 +13692,7 @@
         <v>566</v>
       </c>
       <c r="C541" s="7" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="542" spans="1:3" x14ac:dyDescent="0.2">
@@ -14789,7 +13703,7 @@
         <v>567</v>
       </c>
       <c r="C542" s="7" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
     </row>
     <row r="543" spans="1:3" x14ac:dyDescent="0.2">
@@ -14833,7 +13747,7 @@
         <v>571</v>
       </c>
       <c r="C546" s="7" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
     </row>
     <row r="547" spans="1:3" x14ac:dyDescent="0.2">
@@ -14855,7 +13769,7 @@
         <v>573</v>
       </c>
       <c r="C548" s="7" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="549" spans="1:3" x14ac:dyDescent="0.2">
@@ -14877,7 +13791,7 @@
         <v>575</v>
       </c>
       <c r="C550" s="7" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
     </row>
     <row r="551" spans="1:3" x14ac:dyDescent="0.2">
@@ -14899,7 +13813,7 @@
         <v>577</v>
       </c>
       <c r="C552" s="7" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="553" spans="1:3" x14ac:dyDescent="0.2">
